--- a/biology/Zoologie/Eurema_floricola/Eurema_floricola.xlsx
+++ b/biology/Zoologie/Eurema_floricola/Eurema_floricola.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eurema  floricola est un insecte lépidoptère de la famille des Pieridae, de la sous-famille des Coliadinae et du genre Eurema présent en Afrique.
 </t>
@@ -511,85 +523,90 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Eurema floricola a été nommé par Jean-Baptiste Alphonse Dechauffour de Boisduval en 1833[1].
-Noms vernaculaires
-Ce papillon se nomme en anglais Malagasy Grass Yellow [1].
-Sous-espèces
-Eurema floricola floricola présent à Madagascar.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eurema floricola a été nommé par Jean-Baptiste Alphonse Dechauffour de Boisduval en 1833.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Eurema_floricola</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eurema_floricola</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce papillon se nomme en anglais Malagasy Grass Yellow .
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Eurema_floricola</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eurema_floricola</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Eurema floricola floricola présent à Madagascar.
 Eurema floricola aldabrensis Bernardi, 1969; présent aux Seychelles
 Eurema floricola anjuana (Butler, 1879) présent dans l'archipel des Comores
 Eurema floricola ceres (Butler, 1886) à l'Île Maurice et à La Réunion, sous-espèce endémique des Mascareignes
 Eurema floricola leonis (Butler, 1886)
-Eurema floricola nivea Berger, 1981[1].</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Eurema_floricola</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Eurema_floricola</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un  papillon d'une envergure variant de 35 mm à 38 mm pour les mâles et 37 mm à 40 mm pour les femelles.
-Il est de couleur jaune d'or avec sur la face antérieure une large bordure marron à l'apex.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Eurema_floricola</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Eurema_floricola</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eurema floricola vole toute l'année [2].
-Parasitime
-Les chenilles d'Eurema floricola sont très parasitées par une micro-guêpe Braconide[3]
-Plantes hôtes
-Ses plantes hôtes sont des Caesalpinia, des Desmanthus, des Leucaena dont Leucaena leucocephala et des Mimosa[1],[2].
-</t>
+Eurema floricola nivea Berger, 1981.</t>
         </is>
       </c>
     </row>
@@ -614,16 +631,229 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un  papillon d'une envergure variant de 35 mm à 38 mm pour les mâles et 37 mm à 40 mm pour les femelles.
+Il est de couleur jaune d'or avec sur la face antérieure une large bordure marron à l'apex.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Eurema_floricola</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eurema_floricola</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eurema floricola vole toute l'année .
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Eurema_floricola</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eurema_floricola</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Parasitime</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les chenilles d'Eurema floricola sont très parasitées par une micro-guêpe Braconide
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Eurema_floricola</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eurema_floricola</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses plantes hôtes sont des Caesalpinia, des Desmanthus, des Leucaena dont Leucaena leucocephala et des Mimosa,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Eurema_floricola</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eurema_floricola</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est présent dans le centre de l'Afrique, à Madagascar, dans l'Archipel des Comores, à l'Île Maurice et à La Réunion[1].
-Biotope
-Eurema floricola réside à basse altitude[3].
-Protection
-Pas de statut de protection particulier.
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent dans le centre de l'Afrique, à Madagascar, dans l'Archipel des Comores, à l'Île Maurice et à La Réunion.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Eurema_floricola</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eurema_floricola</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eurema floricola réside à basse altitude.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Eurema_floricola</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eurema_floricola</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
